--- a/pelicanu/projeto/componentes.xlsx
+++ b/pelicanu/projeto/componentes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
   <si>
     <t>ID Unico</t>
   </si>
@@ -37,37 +37,64 @@
     <t>Terminal</t>
   </si>
   <si>
-    <t>633353DD026973B4</t>
+    <t>6334421501413ED7</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>BORNE_SEC</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>633353DD026116D9</t>
+    <t>633442150139633D</t>
   </si>
   <si>
     <t>1T/08PP</t>
   </si>
   <si>
-    <t>b_sec</t>
+    <t>MINI_DISJ</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>633353DD02627C7C</t>
-  </si>
-  <si>
-    <t>m_disj</t>
-  </si>
-  <si>
-    <t>633353DD026F1422</t>
+    <t>63344215013A7F56</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>63344215013D2F74</t>
+  </si>
+  <si>
+    <t>1T/26-49X</t>
+  </si>
+  <si>
+    <t>CONTATO_NA</t>
+  </si>
+  <si>
+    <t>63344215013C5663</t>
+  </si>
+  <si>
+    <t>1T/63X</t>
+  </si>
+  <si>
+    <t>6334421501434859</t>
+  </si>
+  <si>
+    <t>1T/94P-1</t>
+  </si>
+  <si>
+    <t>BOBINA</t>
   </si>
   <si>
     <t>9</t>
@@ -76,97 +103,67 @@
     <t>10</t>
   </si>
   <si>
-    <t>633353DD02657F69</t>
-  </si>
-  <si>
-    <t>1T/26-49X</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>633353DD02647D79</t>
-  </si>
-  <si>
-    <t>1T/63X</t>
-  </si>
-  <si>
-    <t>cont_na</t>
-  </si>
-  <si>
-    <t>633353DD026B6089</t>
-  </si>
-  <si>
-    <t>1T/94P-1</t>
-  </si>
-  <si>
-    <t>633353DD026C54CB</t>
+    <t>6334421501444571</t>
   </si>
   <si>
     <t>1T/94P-2</t>
   </si>
   <si>
-    <t>633353DD026D0407</t>
+    <t>6334421501451EF1</t>
   </si>
   <si>
     <t>1T/94P-3</t>
   </si>
   <si>
-    <t>633353DD026E6239</t>
+    <t>6334421501461B88</t>
   </si>
   <si>
     <t>1T/94P-4</t>
   </si>
   <si>
-    <t>633353DD02776660</t>
+    <t>63344215014E68DD</t>
   </si>
   <si>
     <t>1T/94P-5</t>
   </si>
   <si>
-    <t>633353DD0278618D</t>
+    <t>63344215014F4B99</t>
   </si>
   <si>
     <t>1T/94P-6</t>
   </si>
   <si>
-    <t>633353DD027932A6</t>
+    <t>63344215015049ED</t>
   </si>
   <si>
     <t>1T/94P-7</t>
   </si>
   <si>
-    <t>633353DD027A486C</t>
+    <t>6334421501514487</t>
   </si>
   <si>
     <t>1T/94P-8</t>
   </si>
   <si>
-    <t>633353DD02670C98</t>
+    <t>63344215013F2D98</t>
   </si>
   <si>
     <t>1T/CT14</t>
   </si>
   <si>
+    <t>CT_TENSAO</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>633353DD02683B38</t>
-  </si>
-  <si>
-    <t>ct</t>
-  </si>
-  <si>
-    <t>633353DD028F36DB</t>
+    <t>63344215014039B6</t>
+  </si>
+  <si>
+    <t>6334421501657D0B</t>
   </si>
   <si>
     <t>1T86P</t>
@@ -175,70 +172,73 @@
     <t>OP</t>
   </si>
   <si>
-    <t>633353DD029061B2</t>
+    <t>6334421501662FD9</t>
   </si>
   <si>
     <t>RES</t>
   </si>
   <si>
-    <t>633353DD029108F9</t>
-  </si>
-  <si>
-    <t>633353DD02923EB1</t>
-  </si>
-  <si>
-    <t>633353DD0263036E</t>
+    <t>633442150167295F</t>
+  </si>
+  <si>
+    <t>63344215016875EE</t>
+  </si>
+  <si>
+    <t>CONTATO_NF</t>
+  </si>
+  <si>
+    <t>63344215013B52F0</t>
   </si>
   <si>
     <t>1T87P</t>
   </si>
   <si>
-    <t>SD.01/87</t>
-  </si>
-  <si>
-    <t>633353DD02661352</t>
-  </si>
-  <si>
-    <t>SD.02/50/51</t>
-  </si>
-  <si>
-    <t>633353DD027B3915</t>
+    <t>SD.01</t>
+  </si>
+  <si>
+    <t>63344215013E1F72</t>
+  </si>
+  <si>
+    <t>SD.02</t>
+  </si>
+  <si>
+    <t>6334421501527868</t>
+  </si>
+  <si>
+    <t>ALIM</t>
+  </si>
+  <si>
+    <t>ALIM_CC</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>633353DD026A021A</t>
-  </si>
-  <si>
-    <t>alim</t>
-  </si>
-  <si>
-    <t>633353DD02717F6C</t>
+    <t>6334421501420B72</t>
+  </si>
+  <si>
+    <t>63344215014861F6</t>
   </si>
   <si>
     <t>8M/83T1</t>
   </si>
   <si>
-    <t>633353DD02731AD0</t>
-  </si>
-  <si>
-    <t>cont_na_r</t>
-  </si>
-  <si>
-    <t>633353DD027249E5</t>
+    <t>63344215014A3ED2</t>
+  </si>
+  <si>
+    <t>63344215014940A7</t>
   </si>
   <si>
     <t>8M/83TIX1</t>
   </si>
   <si>
-    <t>633353DD0270285F</t>
+    <t>633442150147582C</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>diodo</t>
+    <t>DIODO</t>
   </si>
 </sst>
 </file>
@@ -629,14 +629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
@@ -674,13 +675,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -693,20 +694,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -725,24 +726,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -755,24 +756,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -785,26 +788,26 @@
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -817,26 +820,26 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -849,26 +852,26 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -881,26 +884,26 @@
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -913,26 +916,26 @@
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -945,26 +948,26 @@
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -977,26 +980,26 @@
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1009,26 +1012,26 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1041,26 +1044,26 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1073,26 +1076,26 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1105,20 +1108,18 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1141,49 +1142,57 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>49</v>
+      <c r="D32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>18</v>
@@ -1191,70 +1200,72 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1267,26 +1278,26 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1299,71 +1310,71 @@
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1376,73 +1387,75 @@
         <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>69</v>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="4">
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1455,43 +1468,11 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="104">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A3"/>
@@ -1500,11 +1481,13 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
@@ -1553,52 +1536,47 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D52:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pelicanu/projeto/componentes.xlsx
+++ b/pelicanu/projeto/componentes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="131">
   <si>
     <t>ID Unico</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Terminal</t>
   </si>
   <si>
-    <t>6334421501413ED7</t>
+    <t>6335EEDF05511EBF</t>
   </si>
   <si>
     <t>1</t>
@@ -52,7 +52,13 @@
     <t>S</t>
   </si>
   <si>
-    <t>633442150139633D</t>
+    <t>6335EEDF05FA28DA</t>
+  </si>
+  <si>
+    <t>6335EEDF05FD146F</t>
+  </si>
+  <si>
+    <t>6335EEDF05494369</t>
   </si>
   <si>
     <t>1T/08PP</t>
@@ -64,7 +70,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>63344215013A7F56</t>
+    <t>6335EEDF054A1581</t>
   </si>
   <si>
     <t>3</t>
@@ -73,7 +79,16 @@
     <t>4</t>
   </si>
   <si>
-    <t>63344215013D2F74</t>
+    <t>6335EEDF05F93D06</t>
+  </si>
+  <si>
+    <t>1T/08TPP</t>
+  </si>
+  <si>
+    <t>CONTATO_NF</t>
+  </si>
+  <si>
+    <t>6335EEDF054D43F8</t>
   </si>
   <si>
     <t>1T/26-49X</t>
@@ -82,70 +97,112 @@
     <t>CONTATO_NA</t>
   </si>
   <si>
-    <t>63344215013C5663</t>
+    <t>6335EEDF06012E8F</t>
+  </si>
+  <si>
+    <t>1T/27CCP</t>
+  </si>
+  <si>
+    <t>BOBINA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6335EEDF054C1779</t>
   </si>
   <si>
     <t>1T/63X</t>
   </si>
   <si>
-    <t>6334421501434859</t>
+    <t>6335EEDF05E12477</t>
+  </si>
+  <si>
+    <t>1T/63X2</t>
+  </si>
+  <si>
+    <t>6335EEDF05EA6DD4</t>
+  </si>
+  <si>
+    <t>1T/69N</t>
+  </si>
+  <si>
+    <t>6335EEDF05530511</t>
   </si>
   <si>
     <t>1T/94P-1</t>
   </si>
   <si>
-    <t>BOBINA</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6334421501444571</t>
+    <t>6335EEDF05D70212</t>
+  </si>
+  <si>
+    <t>1T/94P-10</t>
+  </si>
+  <si>
+    <t>6335EEDF05DE43E5</t>
+  </si>
+  <si>
+    <t>1T/94P-11</t>
+  </si>
+  <si>
+    <t>6335EEDF05E52BD1</t>
+  </si>
+  <si>
+    <t>1T/94P-12</t>
+  </si>
+  <si>
+    <t>6335EEDF0554178E</t>
   </si>
   <si>
     <t>1T/94P-2</t>
   </si>
   <si>
-    <t>6334421501451EF1</t>
+    <t>6335EEDF05556686</t>
   </si>
   <si>
     <t>1T/94P-3</t>
   </si>
   <si>
-    <t>6334421501461B88</t>
+    <t>6335EEDF055606C7</t>
   </si>
   <si>
     <t>1T/94P-4</t>
   </si>
   <si>
-    <t>63344215014E68DD</t>
+    <t>6335EEDF055B14F6</t>
   </si>
   <si>
     <t>1T/94P-5</t>
   </si>
   <si>
-    <t>63344215014F4B99</t>
+    <t>6335EEDF055C018C</t>
   </si>
   <si>
     <t>1T/94P-6</t>
   </si>
   <si>
-    <t>63344215015049ED</t>
+    <t>6335EEDF055D0E0B</t>
   </si>
   <si>
     <t>1T/94P-7</t>
   </si>
   <si>
-    <t>6334421501514487</t>
+    <t>6335EEDF055E4836</t>
   </si>
   <si>
     <t>1T/94P-8</t>
   </si>
   <si>
-    <t>63344215013F2D98</t>
+    <t>6335EEDF05CF0550</t>
+  </si>
+  <si>
+    <t>1T/94P-9</t>
+  </si>
+  <si>
+    <t>6335EEDF054F106B</t>
   </si>
   <si>
     <t>1T/CT14</t>
@@ -160,10 +217,22 @@
     <t>20</t>
   </si>
   <si>
-    <t>63344215014039B6</t>
-  </si>
-  <si>
-    <t>6334421501657D0B</t>
+    <t>6335EEDF0550549F</t>
+  </si>
+  <si>
+    <t>6335EEDF05A7704A</t>
+  </si>
+  <si>
+    <t>6335EEDF05AD494E</t>
+  </si>
+  <si>
+    <t>6335EEDF05D551D9</t>
+  </si>
+  <si>
+    <t>6335EEDF05DC070C</t>
+  </si>
+  <si>
+    <t>6335EEDF05725DE8</t>
   </si>
   <si>
     <t>1T86P</t>
@@ -172,22 +241,19 @@
     <t>OP</t>
   </si>
   <si>
-    <t>6334421501662FD9</t>
+    <t>6335EEDF057362B4</t>
   </si>
   <si>
     <t>RES</t>
   </si>
   <si>
-    <t>633442150167295F</t>
-  </si>
-  <si>
-    <t>63344215016875EE</t>
-  </si>
-  <si>
-    <t>CONTATO_NF</t>
-  </si>
-  <si>
-    <t>63344215013B52F0</t>
+    <t>6335EEDF057440E9</t>
+  </si>
+  <si>
+    <t>6335EEDF05754DAF</t>
+  </si>
+  <si>
+    <t>6335EEDF054B0521</t>
   </si>
   <si>
     <t>1T87P</t>
@@ -196,13 +262,13 @@
     <t>SD.01</t>
   </si>
   <si>
-    <t>63344215013E1F72</t>
+    <t>6335EEDF054E3E53</t>
   </si>
   <si>
     <t>SD.02</t>
   </si>
   <si>
-    <t>6334421501527868</t>
+    <t>6335EEDF055F3770</t>
   </si>
   <si>
     <t>ALIM</t>
@@ -214,31 +280,133 @@
     <t>GND</t>
   </si>
   <si>
-    <t>6334421501420B72</t>
-  </si>
-  <si>
-    <t>63344215014861F6</t>
+    <t>6335EEDF05A64687</t>
+  </si>
+  <si>
+    <t>6335EEDF05A900DC</t>
+  </si>
+  <si>
+    <t>6335EEDF05B17AB6</t>
+  </si>
+  <si>
+    <t>6335EEDF05B65289</t>
+  </si>
+  <si>
+    <t>6335EEDF05BB20C6</t>
+  </si>
+  <si>
+    <t>6335EEDF05C038DF</t>
+  </si>
+  <si>
+    <t>6335EEDF05C51BB0</t>
+  </si>
+  <si>
+    <t>6335EEDF05CA1D09</t>
+  </si>
+  <si>
+    <t>6335EEDF05D40E93</t>
+  </si>
+  <si>
+    <t>6335EEDF05DB2964</t>
+  </si>
+  <si>
+    <t>6335EEDF05F73949</t>
+  </si>
+  <si>
+    <t>ED.01</t>
+  </si>
+  <si>
+    <t>ENT_DIG</t>
+  </si>
+  <si>
+    <t>6335EEDF05F861AF</t>
+  </si>
+  <si>
+    <t>ED.02</t>
+  </si>
+  <si>
+    <t>6335EEDF06052901</t>
+  </si>
+  <si>
+    <t>6335EEDF05E32A6A</t>
+  </si>
+  <si>
+    <t>1T87P/FLHX</t>
+  </si>
+  <si>
+    <t>6335EEDF05BD5013</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51AT</t>
+  </si>
+  <si>
+    <t>6335EEDF05B867BA</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51BT</t>
+  </si>
+  <si>
+    <t>6335EEDF05CC27D5</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51N</t>
+  </si>
+  <si>
+    <t>6335EEDF05C72992</t>
+  </si>
+  <si>
+    <t>1T87PX/51G</t>
+  </si>
+  <si>
+    <t>6335EEDF05C24532</t>
+  </si>
+  <si>
+    <t>1T87PX/59N</t>
+  </si>
+  <si>
+    <t>6335EEDF05B359B8</t>
+  </si>
+  <si>
+    <t>1T87PX/87N</t>
+  </si>
+  <si>
+    <t>6335EEDF05AB1348</t>
+  </si>
+  <si>
+    <t>1T87PX/87T</t>
+  </si>
+  <si>
+    <t>6335EEDF05526997</t>
+  </si>
+  <si>
+    <t>6335EEDF05585828</t>
   </si>
   <si>
     <t>8M/83T1</t>
   </si>
   <si>
-    <t>63344215014A3ED2</t>
-  </si>
-  <si>
-    <t>63344215014940A7</t>
+    <t>6335EEDF055A3E63</t>
+  </si>
+  <si>
+    <t>6335EEDF055940BB</t>
   </si>
   <si>
     <t>8M/83TIX1</t>
   </si>
   <si>
-    <t>633442150147582C</t>
+    <t>6335EEDF05575D3B</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
     <t>DIODO</t>
+  </si>
+  <si>
+    <t>6335EEDF05EB64FE</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -629,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,19 +869,17 @@
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -726,24 +892,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -756,26 +922,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -788,26 +954,24 @@
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -820,26 +984,26 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -852,15 +1016,15 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -871,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -884,26 +1048,26 @@
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -916,15 +1080,15 @@
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -935,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -948,15 +1112,15 @@
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -967,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -980,26 +1144,26 @@
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1012,26 +1176,26 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1044,26 +1208,26 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1076,26 +1240,26 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1108,24 +1272,26 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1138,292 +1304,282 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>26</v>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>21</v>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F42" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="4">
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1436,26 +1592,24 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1468,31 +1622,1181 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4">
+        <v>3</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4">
+        <v>2</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="4">
+        <v>2</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4">
+        <v>2</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="4">
+        <v>2</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="4">
+        <v>2</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="246">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D10:D11"/>
@@ -1536,47 +2840,193 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B64:B96"/>
+    <mergeCell ref="C64:C96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D122:D123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pelicanu/projeto/componentes.xlsx
+++ b/pelicanu/projeto/componentes.xlsx
@@ -37,7 +37,7 @@
     <t>Terminal</t>
   </si>
   <si>
-    <t>6335EEDF05511EBF</t>
+    <t>6337025003091F0E</t>
   </si>
   <si>
     <t>1</t>
@@ -52,13 +52,13 @@
     <t>S</t>
   </si>
   <si>
-    <t>6335EEDF05FA28DA</t>
-  </si>
-  <si>
-    <t>6335EEDF05FD146F</t>
-  </si>
-  <si>
-    <t>6335EEDF05494369</t>
+    <t>6337025103B2704E</t>
+  </si>
+  <si>
+    <t>6337025103B54D1F</t>
+  </si>
+  <si>
+    <t>6337025003015CBB</t>
   </si>
   <si>
     <t>1T/08PP</t>
@@ -70,7 +70,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>6335EEDF054A1581</t>
+    <t>6337025003023A17</t>
   </si>
   <si>
     <t>3</t>
@@ -79,7 +79,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>6335EEDF05F93D06</t>
+    <t>6337025103B1633F</t>
   </si>
   <si>
     <t>1T/08TPP</t>
@@ -88,7 +88,7 @@
     <t>CONTATO_NF</t>
   </si>
   <si>
-    <t>6335EEDF054D43F8</t>
+    <t>633702500305697F</t>
   </si>
   <si>
     <t>1T/26-49X</t>
@@ -97,7 +97,7 @@
     <t>CONTATO_NA</t>
   </si>
   <si>
-    <t>6335EEDF06012E8F</t>
+    <t>6337025103B95BE6</t>
   </si>
   <si>
     <t>1T/27CCP</t>
@@ -112,97 +112,97 @@
     <t>10</t>
   </si>
   <si>
-    <t>6335EEDF054C1779</t>
+    <t>6337025003043055</t>
   </si>
   <si>
     <t>1T/63X</t>
   </si>
   <si>
-    <t>6335EEDF05E12477</t>
+    <t>63370250039940FA</t>
   </si>
   <si>
     <t>1T/63X2</t>
   </si>
   <si>
-    <t>6335EEDF05EA6DD4</t>
+    <t>6337025003A21C32</t>
   </si>
   <si>
     <t>1T/69N</t>
   </si>
   <si>
-    <t>6335EEDF05530511</t>
+    <t>63370250030B6E40</t>
   </si>
   <si>
     <t>1T/94P-1</t>
   </si>
   <si>
-    <t>6335EEDF05D70212</t>
+    <t>63370250038F69E4</t>
   </si>
   <si>
     <t>1T/94P-10</t>
   </si>
   <si>
-    <t>6335EEDF05DE43E5</t>
+    <t>6337025003960DD5</t>
   </si>
   <si>
     <t>1T/94P-11</t>
   </si>
   <si>
-    <t>6335EEDF05E52BD1</t>
+    <t>63370250039D6C83</t>
   </si>
   <si>
     <t>1T/94P-12</t>
   </si>
   <si>
-    <t>6335EEDF0554178E</t>
+    <t>63370250030C743C</t>
   </si>
   <si>
     <t>1T/94P-2</t>
   </si>
   <si>
-    <t>6335EEDF05556686</t>
+    <t>63370250030D241C</t>
   </si>
   <si>
     <t>1T/94P-3</t>
   </si>
   <si>
-    <t>6335EEDF055606C7</t>
+    <t>63370250030E3E36</t>
   </si>
   <si>
     <t>1T/94P-4</t>
   </si>
   <si>
-    <t>6335EEDF055B14F6</t>
+    <t>6337025003135999</t>
   </si>
   <si>
     <t>1T/94P-5</t>
   </si>
   <si>
-    <t>6335EEDF055C018C</t>
+    <t>63370250031433D5</t>
   </si>
   <si>
     <t>1T/94P-6</t>
   </si>
   <si>
-    <t>6335EEDF055D0E0B</t>
+    <t>63370250031514E8</t>
   </si>
   <si>
     <t>1T/94P-7</t>
   </si>
   <si>
-    <t>6335EEDF055E4836</t>
+    <t>6337025003163F8C</t>
   </si>
   <si>
     <t>1T/94P-8</t>
   </si>
   <si>
-    <t>6335EEDF05CF0550</t>
+    <t>63370250038772EA</t>
   </si>
   <si>
     <t>1T/94P-9</t>
   </si>
   <si>
-    <t>6335EEDF054F106B</t>
+    <t>6337025003074A57</t>
   </si>
   <si>
     <t>1T/CT14</t>
@@ -217,22 +217,22 @@
     <t>20</t>
   </si>
   <si>
-    <t>6335EEDF0550549F</t>
-  </si>
-  <si>
-    <t>6335EEDF05A7704A</t>
-  </si>
-  <si>
-    <t>6335EEDF05AD494E</t>
-  </si>
-  <si>
-    <t>6335EEDF05D551D9</t>
-  </si>
-  <si>
-    <t>6335EEDF05DC070C</t>
-  </si>
-  <si>
-    <t>6335EEDF05725DE8</t>
+    <t>63370250030840E8</t>
+  </si>
+  <si>
+    <t>63370250035F696A</t>
+  </si>
+  <si>
+    <t>6337025003655675</t>
+  </si>
+  <si>
+    <t>63370250038D7764</t>
+  </si>
+  <si>
+    <t>63370250039404AA</t>
+  </si>
+  <si>
+    <t>63370250032A76C5</t>
   </si>
   <si>
     <t>1T86P</t>
@@ -241,19 +241,19 @@
     <t>OP</t>
   </si>
   <si>
-    <t>6335EEDF057362B4</t>
+    <t>63370250032B02A2</t>
   </si>
   <si>
     <t>RES</t>
   </si>
   <si>
-    <t>6335EEDF057440E9</t>
-  </si>
-  <si>
-    <t>6335EEDF05754DAF</t>
-  </si>
-  <si>
-    <t>6335EEDF054B0521</t>
+    <t>63370250032C001C</t>
+  </si>
+  <si>
+    <t>63370250032D576E</t>
+  </si>
+  <si>
+    <t>6337025003034189</t>
   </si>
   <si>
     <t>1T87P</t>
@@ -262,13 +262,13 @@
     <t>SD.01</t>
   </si>
   <si>
-    <t>6335EEDF054E3E53</t>
+    <t>6337025003062E85</t>
   </si>
   <si>
     <t>SD.02</t>
   </si>
   <si>
-    <t>6335EEDF055F3770</t>
+    <t>6337025003173E73</t>
   </si>
   <si>
     <t>ALIM</t>
@@ -280,37 +280,37 @@
     <t>GND</t>
   </si>
   <si>
-    <t>6335EEDF05A64687</t>
-  </si>
-  <si>
-    <t>6335EEDF05A900DC</t>
-  </si>
-  <si>
-    <t>6335EEDF05B17AB6</t>
-  </si>
-  <si>
-    <t>6335EEDF05B65289</t>
-  </si>
-  <si>
-    <t>6335EEDF05BB20C6</t>
-  </si>
-  <si>
-    <t>6335EEDF05C038DF</t>
-  </si>
-  <si>
-    <t>6335EEDF05C51BB0</t>
-  </si>
-  <si>
-    <t>6335EEDF05CA1D09</t>
-  </si>
-  <si>
-    <t>6335EEDF05D40E93</t>
-  </si>
-  <si>
-    <t>6335EEDF05DB2964</t>
-  </si>
-  <si>
-    <t>6335EEDF05F73949</t>
+    <t>63370250035E4ACE</t>
+  </si>
+  <si>
+    <t>6337025003614A1B</t>
+  </si>
+  <si>
+    <t>6337025003694BDA</t>
+  </si>
+  <si>
+    <t>63370250036E6B65</t>
+  </si>
+  <si>
+    <t>633702500373179D</t>
+  </si>
+  <si>
+    <t>6337025003784DE9</t>
+  </si>
+  <si>
+    <t>63370250037D1CDE</t>
+  </si>
+  <si>
+    <t>6337025003823D6D</t>
+  </si>
+  <si>
+    <t>63370250038C0A3D</t>
+  </si>
+  <si>
+    <t>63370250039366ED</t>
+  </si>
+  <si>
+    <t>6337025003AF093D</t>
   </si>
   <si>
     <t>ED.01</t>
@@ -319,82 +319,82 @@
     <t>ENT_DIG</t>
   </si>
   <si>
-    <t>6335EEDF05F861AF</t>
+    <t>6337025003B03D9A</t>
   </si>
   <si>
     <t>ED.02</t>
   </si>
   <si>
-    <t>6335EEDF06052901</t>
-  </si>
-  <si>
-    <t>6335EEDF05E32A6A</t>
+    <t>6337025103BB2B72</t>
+  </si>
+  <si>
+    <t>63370250039B58E9</t>
   </si>
   <si>
     <t>1T87P/FLHX</t>
   </si>
   <si>
-    <t>6335EEDF05BD5013</t>
+    <t>633702500375649C</t>
   </si>
   <si>
     <t>1T87PX/50-51AT</t>
   </si>
   <si>
-    <t>6335EEDF05B867BA</t>
+    <t>6337025003701FEA</t>
   </si>
   <si>
     <t>1T87PX/50-51BT</t>
   </si>
   <si>
-    <t>6335EEDF05CC27D5</t>
+    <t>63370250038472FA</t>
   </si>
   <si>
     <t>1T87PX/50-51N</t>
   </si>
   <si>
-    <t>6335EEDF05C72992</t>
+    <t>63370250037F1D5D</t>
   </si>
   <si>
     <t>1T87PX/51G</t>
   </si>
   <si>
-    <t>6335EEDF05C24532</t>
+    <t>63370250037A79B7</t>
   </si>
   <si>
     <t>1T87PX/59N</t>
   </si>
   <si>
-    <t>6335EEDF05B359B8</t>
+    <t>63370250036B4ADD</t>
   </si>
   <si>
     <t>1T87PX/87N</t>
   </si>
   <si>
-    <t>6335EEDF05AB1348</t>
+    <t>63370250036335FF</t>
   </si>
   <si>
     <t>1T87PX/87T</t>
   </si>
   <si>
-    <t>6335EEDF05526997</t>
-  </si>
-  <si>
-    <t>6335EEDF05585828</t>
+    <t>63370250030A1F3C</t>
+  </si>
+  <si>
+    <t>6337025003107934</t>
   </si>
   <si>
     <t>8M/83T1</t>
   </si>
   <si>
-    <t>6335EEDF055A3E63</t>
-  </si>
-  <si>
-    <t>6335EEDF055940BB</t>
+    <t>633702500312078C</t>
+  </si>
+  <si>
+    <t>633702500311284F</t>
   </si>
   <si>
     <t>8M/83TIX1</t>
   </si>
   <si>
-    <t>6335EEDF05575D3B</t>
+    <t>63370250030F652B</t>
   </si>
   <si>
     <t>D1</t>
@@ -403,7 +403,7 @@
     <t>DIODO</t>
   </si>
   <si>
-    <t>6335EEDF05EB64FE</t>
+    <t>6337025003A32AE1</t>
   </si>
   <si>
     <t>D2</t>

--- a/pelicanu/projeto/componentes.xlsx
+++ b/pelicanu/projeto/componentes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="136">
   <si>
     <t>ID Unico</t>
   </si>
@@ -37,12 +37,375 @@
     <t>Terminal</t>
   </si>
   <si>
-    <t>6337025003091F0E</t>
+    <t>633F1E2C010B7D75</t>
+  </si>
+  <si>
+    <t>1T/08PP</t>
+  </si>
+  <si>
+    <t>MINI_DISJ</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>633F1E2C010C6FEB</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>633F1E2C01B9698D</t>
+  </si>
+  <si>
+    <t>1T/08TPP</t>
+  </si>
+  <si>
+    <t>CONTATO_NF</t>
+  </si>
+  <si>
+    <t>633F1E2C010F5328</t>
+  </si>
+  <si>
+    <t>1T/26-49X</t>
+  </si>
+  <si>
+    <t>CONTATO_NA</t>
+  </si>
+  <si>
+    <t>633F1E2C01BF5D4E</t>
+  </si>
+  <si>
+    <t>1T/27CCP</t>
+  </si>
+  <si>
+    <t>BOBINA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>633F1E2C010E524B</t>
+  </si>
+  <si>
+    <t>1T/63X</t>
+  </si>
+  <si>
+    <t>633F1E2C01A10272</t>
+  </si>
+  <si>
+    <t>1T/63X2</t>
+  </si>
+  <si>
+    <t>633F1E2C01AA1B50</t>
+  </si>
+  <si>
+    <t>1T/69N</t>
+  </si>
+  <si>
+    <t>633F1E2C011338D5</t>
+  </si>
+  <si>
+    <t>1T/94P-1</t>
+  </si>
+  <si>
+    <t>633F1E2C019764A9</t>
+  </si>
+  <si>
+    <t>1T/94P-10</t>
+  </si>
+  <si>
+    <t>633F1E2C019E4064</t>
+  </si>
+  <si>
+    <t>1T/94P-11</t>
+  </si>
+  <si>
+    <t>633F1E2C01A54AE4</t>
+  </si>
+  <si>
+    <t>1T/94P-12</t>
+  </si>
+  <si>
+    <t>633F1E2C011414D7</t>
+  </si>
+  <si>
+    <t>1T/94P-2</t>
+  </si>
+  <si>
+    <t>633F1E2C011540AF</t>
+  </si>
+  <si>
+    <t>1T/94P-3</t>
+  </si>
+  <si>
+    <t>633F1E2C01162EFD</t>
+  </si>
+  <si>
+    <t>1T/94P-4</t>
+  </si>
+  <si>
+    <t>633F1E2C011B2209</t>
+  </si>
+  <si>
+    <t>1T/94P-5</t>
+  </si>
+  <si>
+    <t>633F1E2C011C37CB</t>
+  </si>
+  <si>
+    <t>1T/94P-6</t>
+  </si>
+  <si>
+    <t>633F1E2C011D06A1</t>
+  </si>
+  <si>
+    <t>1T/94P-7</t>
+  </si>
+  <si>
+    <t>633F1E2C011E713E</t>
+  </si>
+  <si>
+    <t>1T/94P-8</t>
+  </si>
+  <si>
+    <t>633F1E2C018F6F1B</t>
+  </si>
+  <si>
+    <t>1T/94P-9</t>
+  </si>
+  <si>
+    <t>633F1E2C01116E75</t>
+  </si>
+  <si>
+    <t>1T/CT14</t>
+  </si>
+  <si>
+    <t>CT_TENSAO</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>633F1E2C01127105</t>
+  </si>
+  <si>
+    <t>633F1E2C01675F6B</t>
+  </si>
+  <si>
+    <t>633F1E2C016D497D</t>
+  </si>
+  <si>
+    <t>633F1E2C0195598D</t>
+  </si>
+  <si>
+    <t>633F1E2C019C7F98</t>
+  </si>
+  <si>
+    <t>633F1E2C01324B89</t>
+  </si>
+  <si>
+    <t>1T86P</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>633F1E2C013351D6</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>633F1E2C0134222D</t>
+  </si>
+  <si>
+    <t>633F1E2C0135199C</t>
+  </si>
+  <si>
+    <t>633F1E2C010D7A1A</t>
+  </si>
+  <si>
+    <t>1T87P</t>
+  </si>
+  <si>
+    <t>SD.01</t>
+  </si>
+  <si>
+    <t>633F1E2C01102B2E</t>
+  </si>
+  <si>
+    <t>SD.02</t>
+  </si>
+  <si>
+    <t>633F1E2C011F55BC</t>
+  </si>
+  <si>
+    <t>ALIM</t>
+  </si>
+  <si>
+    <t>ALIM_CC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>633F1E2C016631C2</t>
+  </si>
+  <si>
+    <t>633F1E2C01697EFC</t>
+  </si>
+  <si>
+    <t>633F1E2C01711B3E</t>
+  </si>
+  <si>
+    <t>633F1E2C01766E2E</t>
+  </si>
+  <si>
+    <t>633F1E2C017B3E84</t>
+  </si>
+  <si>
+    <t>633F1E2C018023ED</t>
+  </si>
+  <si>
+    <t>633F1E2C018524D3</t>
+  </si>
+  <si>
+    <t>633F1E2C018A4FEE</t>
+  </si>
+  <si>
+    <t>633F1E2C01947C4E</t>
+  </si>
+  <si>
+    <t>633F1E2C019B29D3</t>
+  </si>
+  <si>
+    <t>633F1E2C01B7068F</t>
+  </si>
+  <si>
+    <t>ED.01</t>
+  </si>
+  <si>
+    <t>ENT_DIG</t>
+  </si>
+  <si>
+    <t>633F1E2C01B817A6</t>
+  </si>
+  <si>
+    <t>ED.02</t>
+  </si>
+  <si>
+    <t>633F1E2C01C11C55</t>
+  </si>
+  <si>
+    <t>633F1E2C01A34957</t>
+  </si>
+  <si>
+    <t>1T87P/FLHX</t>
+  </si>
+  <si>
+    <t>633F1E2C017D3AF5</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51AT</t>
+  </si>
+  <si>
+    <t>633F1E2C01786AF3</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51BT</t>
+  </si>
+  <si>
+    <t>633F1E2C018C3EBE</t>
+  </si>
+  <si>
+    <t>1T87PX/50-51N</t>
+  </si>
+  <si>
+    <t>633F1E2C0187269F</t>
+  </si>
+  <si>
+    <t>1T87PX/51G</t>
+  </si>
+  <si>
+    <t>633F1E2C01823176</t>
+  </si>
+  <si>
+    <t>1T87PX/59N</t>
+  </si>
+  <si>
+    <t>633F1E2C017320AC</t>
+  </si>
+  <si>
+    <t>1T87PX/87N</t>
+  </si>
+  <si>
+    <t>633F1E2C016B1F5C</t>
+  </si>
+  <si>
+    <t>1T87PX/87T</t>
+  </si>
+  <si>
+    <t>633F1E2C011852EE</t>
+  </si>
+  <si>
+    <t>8M/83T1</t>
+  </si>
+  <si>
+    <t>633F1E2C011A4A2B</t>
+  </si>
+  <si>
+    <t>633F1E2C011962BA</t>
+  </si>
+  <si>
+    <t>8M/83TIX1</t>
+  </si>
+  <si>
+    <t>633F1E2C01E63969</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BORNE</t>
+  </si>
+  <si>
+    <t>633F1E2C01E71E47</t>
+  </si>
+  <si>
+    <t>633F1E2C01173A3D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>DIODO</t>
+  </si>
+  <si>
+    <t>633F1E2C01AB2FD4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>633F1E2C01E230D6</t>
+  </si>
+  <si>
+    <t>K3.1</t>
+  </si>
+  <si>
     <t>BORNE_SEC</t>
   </si>
   <si>
@@ -52,361 +415,13 @@
     <t>S</t>
   </si>
   <si>
-    <t>6337025103B2704E</t>
-  </si>
-  <si>
-    <t>6337025103B54D1F</t>
-  </si>
-  <si>
-    <t>6337025003015CBB</t>
-  </si>
-  <si>
-    <t>1T/08PP</t>
-  </si>
-  <si>
-    <t>MINI_DISJ</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6337025003023A17</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6337025103B1633F</t>
-  </si>
-  <si>
-    <t>1T/08TPP</t>
-  </si>
-  <si>
-    <t>CONTATO_NF</t>
-  </si>
-  <si>
-    <t>633702500305697F</t>
-  </si>
-  <si>
-    <t>1T/26-49X</t>
-  </si>
-  <si>
-    <t>CONTATO_NA</t>
-  </si>
-  <si>
-    <t>6337025103B95BE6</t>
-  </si>
-  <si>
-    <t>1T/27CCP</t>
-  </si>
-  <si>
-    <t>BOBINA</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6337025003043055</t>
-  </si>
-  <si>
-    <t>1T/63X</t>
-  </si>
-  <si>
-    <t>63370250039940FA</t>
-  </si>
-  <si>
-    <t>1T/63X2</t>
-  </si>
-  <si>
-    <t>6337025003A21C32</t>
-  </si>
-  <si>
-    <t>1T/69N</t>
-  </si>
-  <si>
-    <t>63370250030B6E40</t>
-  </si>
-  <si>
-    <t>1T/94P-1</t>
-  </si>
-  <si>
-    <t>63370250038F69E4</t>
-  </si>
-  <si>
-    <t>1T/94P-10</t>
-  </si>
-  <si>
-    <t>6337025003960DD5</t>
-  </si>
-  <si>
-    <t>1T/94P-11</t>
-  </si>
-  <si>
-    <t>63370250039D6C83</t>
-  </si>
-  <si>
-    <t>1T/94P-12</t>
-  </si>
-  <si>
-    <t>63370250030C743C</t>
-  </si>
-  <si>
-    <t>1T/94P-2</t>
-  </si>
-  <si>
-    <t>63370250030D241C</t>
-  </si>
-  <si>
-    <t>1T/94P-3</t>
-  </si>
-  <si>
-    <t>63370250030E3E36</t>
-  </si>
-  <si>
-    <t>1T/94P-4</t>
-  </si>
-  <si>
-    <t>6337025003135999</t>
-  </si>
-  <si>
-    <t>1T/94P-5</t>
-  </si>
-  <si>
-    <t>63370250031433D5</t>
-  </si>
-  <si>
-    <t>1T/94P-6</t>
-  </si>
-  <si>
-    <t>63370250031514E8</t>
-  </si>
-  <si>
-    <t>1T/94P-7</t>
-  </si>
-  <si>
-    <t>6337025003163F8C</t>
-  </si>
-  <si>
-    <t>1T/94P-8</t>
-  </si>
-  <si>
-    <t>63370250038772EA</t>
-  </si>
-  <si>
-    <t>1T/94P-9</t>
-  </si>
-  <si>
-    <t>6337025003074A57</t>
-  </si>
-  <si>
-    <t>1T/CT14</t>
-  </si>
-  <si>
-    <t>CT_TENSAO</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>63370250030840E8</t>
-  </si>
-  <si>
-    <t>63370250035F696A</t>
-  </si>
-  <si>
-    <t>6337025003655675</t>
-  </si>
-  <si>
-    <t>63370250038D7764</t>
-  </si>
-  <si>
-    <t>63370250039404AA</t>
-  </si>
-  <si>
-    <t>63370250032A76C5</t>
-  </si>
-  <si>
-    <t>1T86P</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>63370250032B02A2</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>63370250032C001C</t>
-  </si>
-  <si>
-    <t>63370250032D576E</t>
-  </si>
-  <si>
-    <t>6337025003034189</t>
-  </si>
-  <si>
-    <t>1T87P</t>
-  </si>
-  <si>
-    <t>SD.01</t>
-  </si>
-  <si>
-    <t>6337025003062E85</t>
-  </si>
-  <si>
-    <t>SD.02</t>
-  </si>
-  <si>
-    <t>6337025003173E73</t>
-  </si>
-  <si>
-    <t>ALIM</t>
-  </si>
-  <si>
-    <t>ALIM_CC</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>63370250035E4ACE</t>
-  </si>
-  <si>
-    <t>6337025003614A1B</t>
-  </si>
-  <si>
-    <t>6337025003694BDA</t>
-  </si>
-  <si>
-    <t>63370250036E6B65</t>
-  </si>
-  <si>
-    <t>633702500373179D</t>
-  </si>
-  <si>
-    <t>6337025003784DE9</t>
-  </si>
-  <si>
-    <t>63370250037D1CDE</t>
-  </si>
-  <si>
-    <t>6337025003823D6D</t>
-  </si>
-  <si>
-    <t>63370250038C0A3D</t>
-  </si>
-  <si>
-    <t>63370250039366ED</t>
-  </si>
-  <si>
-    <t>6337025003AF093D</t>
-  </si>
-  <si>
-    <t>ED.01</t>
-  </si>
-  <si>
-    <t>ENT_DIG</t>
-  </si>
-  <si>
-    <t>6337025003B03D9A</t>
-  </si>
-  <si>
-    <t>ED.02</t>
-  </si>
-  <si>
-    <t>6337025103BB2B72</t>
-  </si>
-  <si>
-    <t>63370250039B58E9</t>
-  </si>
-  <si>
-    <t>1T87P/FLHX</t>
-  </si>
-  <si>
-    <t>633702500375649C</t>
-  </si>
-  <si>
-    <t>1T87PX/50-51AT</t>
-  </si>
-  <si>
-    <t>6337025003701FEA</t>
-  </si>
-  <si>
-    <t>1T87PX/50-51BT</t>
-  </si>
-  <si>
-    <t>63370250038472FA</t>
-  </si>
-  <si>
-    <t>1T87PX/50-51N</t>
-  </si>
-  <si>
-    <t>63370250037F1D5D</t>
-  </si>
-  <si>
-    <t>1T87PX/51G</t>
-  </si>
-  <si>
-    <t>63370250037A79B7</t>
-  </si>
-  <si>
-    <t>1T87PX/59N</t>
-  </si>
-  <si>
-    <t>63370250036B4ADD</t>
-  </si>
-  <si>
-    <t>1T87PX/87N</t>
-  </si>
-  <si>
-    <t>63370250036335FF</t>
-  </si>
-  <si>
-    <t>1T87PX/87T</t>
-  </si>
-  <si>
-    <t>63370250030A1F3C</t>
-  </si>
-  <si>
-    <t>6337025003107934</t>
-  </si>
-  <si>
-    <t>8M/83T1</t>
-  </si>
-  <si>
-    <t>633702500312078C</t>
-  </si>
-  <si>
-    <t>633702500311284F</t>
-  </si>
-  <si>
-    <t>8M/83TIX1</t>
-  </si>
-  <si>
-    <t>63370250030F652B</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>DIODO</t>
-  </si>
-  <si>
-    <t>6337025003A32AE1</t>
-  </si>
-  <si>
-    <t>D2</t>
+    <t>633F1E2C01E357CE</t>
+  </si>
+  <si>
+    <t>633F1E2C01E451B0</t>
+  </si>
+  <si>
+    <t>633F1E2C01E51DD8</t>
   </si>
 </sst>
 </file>
@@ -797,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -892,18 +907,20 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -927,21 +944,21 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -954,24 +971,26 @@
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -984,26 +1003,26 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1016,26 +1035,26 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1048,26 +1067,26 @@
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1080,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1093,13 +1112,13 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1112,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1125,13 +1144,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1144,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1163,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1176,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1189,13 +1208,13 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1208,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1221,13 +1240,13 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1240,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1253,13 +1272,13 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1272,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1285,13 +1304,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1304,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1317,13 +1336,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1336,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1349,13 +1368,13 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1368,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1381,13 +1400,13 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1400,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1413,13 +1432,13 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1432,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1445,13 +1464,13 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1464,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1477,13 +1496,13 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1496,26 +1515,24 @@
         <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1528,26 +1545,24 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1560,26 +1575,24 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1592,24 +1605,24 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1622,24 +1635,24 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1652,269 +1665,275 @@
         <v>2</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>70</v>
+      <c r="A56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>64</v>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="4">
         <v>2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="3"/>
       <c r="F59" s="4">
         <v>2</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>29</v>
+      <c r="D60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
-        <v>77</v>
+      <c r="A62" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>26</v>
+      <c r="D62" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F62" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="4">
         <v>2</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="3"/>
+      <c r="D67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F69" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1924,29 +1943,29 @@
       <c r="D70" s="6"/>
       <c r="E70" s="3"/>
       <c r="F70" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1959,26 +1978,26 @@
         <v>2</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1991,26 +2010,26 @@
         <v>2</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2023,26 +2042,26 @@
         <v>2</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2055,26 +2074,26 @@
         <v>2</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2087,26 +2106,26 @@
         <v>2</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2119,26 +2138,26 @@
         <v>2</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2151,26 +2170,26 @@
         <v>2</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2183,26 +2202,26 @@
         <v>2</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2215,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2225,16 +2244,16 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2247,103 +2266,103 @@
         <v>2</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="4">
         <v>2</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="4">
         <v>2</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="4">
         <v>2</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2356,13 +2375,13 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2375,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2388,13 +2407,13 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2407,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2420,13 +2439,13 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2439,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2452,13 +2471,13 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2471,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2484,13 +2503,13 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2503,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2516,13 +2535,13 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2535,84 +2554,86 @@
         <v>2</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E111" s="3"/>
       <c r="F111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F112" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A113" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
-        <v>9</v>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -2622,84 +2643,86 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F114" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="E115" s="3"/>
       <c r="F115" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F116" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
       <c r="F117" s="4">
         <v>2</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -2712,26 +2735,24 @@
         <v>2</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2744,26 +2765,24 @@
         <v>2</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>130</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -2776,7 +2795,37 @@
         <v>2</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="4">
+        <v>2</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2784,19 +2833,23 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D10:D11"/>
@@ -2875,18 +2928,12 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="D46:D47"/>
@@ -2896,31 +2943,31 @@
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="C42:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="D71:D72"/>
@@ -2948,17 +2995,23 @@
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="D87:D88"/>
+    <mergeCell ref="B58:B90"/>
+    <mergeCell ref="C58:C90"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="D89:D90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="E91:E92"/>
     <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="D93:D94"/>
-    <mergeCell ref="B64:B96"/>
-    <mergeCell ref="C64:C96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="D95:D96"/>
@@ -2987,46 +3040,42 @@
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="E105:E106"/>
     <mergeCell ref="D105:D106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="E107:E108"/>
     <mergeCell ref="D107:D108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D116:D117"/>
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="E118:E119"/>
     <mergeCell ref="D118:D119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="E120:E121"/>
     <mergeCell ref="D120:D121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="E122:E123"/>
     <mergeCell ref="D122:D123"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="C118:C125"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D124:D125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
